--- a/src/test/resources/objectrepository.xlsx
+++ b/src/test/resources/objectrepository.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="529">
   <si>
     <t>Page Name</t>
   </si>
@@ -1597,6 +1597,18 @@
   </si>
   <si>
     <t>xpath;//label[text()='Company Identification Number']/following-sibling::div/input</t>
+  </si>
+  <si>
+    <t>xpath;//span[@title='Luxury - Cosmetics']</t>
+  </si>
+  <si>
+    <t>Luxury_Cosmetics</t>
+  </si>
+  <si>
+    <t>MarketName2</t>
+  </si>
+  <si>
+    <t>xpath;//label[text()='Market Name']/following-sibling::div/lightning-base-combobox/div/div/input</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1650,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="88">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2755,10 +2807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C293"/>
+  <dimension ref="A1:C295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="B275" sqref="B275"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5476,10 +5528,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>322</v>
+        <v>526</v>
       </c>
       <c r="B247" t="s">
-        <v>13</v>
+        <v>525</v>
       </c>
       <c r="C247" t="s">
         <v>261</v>
@@ -5487,10 +5539,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B248" t="s">
-        <v>323</v>
+        <v>13</v>
       </c>
       <c r="C248" t="s">
         <v>261</v>
@@ -5498,10 +5550,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B249" t="s">
-        <v>381</v>
+        <v>323</v>
       </c>
       <c r="C249" t="s">
         <v>261</v>
@@ -5509,10 +5561,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B250" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C250" t="s">
         <v>261</v>
@@ -5520,10 +5572,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>328</v>
+        <v>527</v>
       </c>
       <c r="B251" t="s">
-        <v>327</v>
+        <v>528</v>
       </c>
       <c r="C251" t="s">
         <v>261</v>
@@ -5531,10 +5583,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B252" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="C252" t="s">
         <v>261</v>
@@ -5542,32 +5594,32 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="B253" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="C253" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>503</v>
+        <v>330</v>
       </c>
       <c r="B254" t="s">
-        <v>502</v>
+        <v>329</v>
       </c>
       <c r="C254" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B255" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C255" t="s">
         <v>70</v>
@@ -5575,10 +5627,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>382</v>
+        <v>503</v>
       </c>
       <c r="B256" t="s">
-        <v>174</v>
+        <v>502</v>
       </c>
       <c r="C256" t="s">
         <v>70</v>
@@ -5586,10 +5638,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B257" t="s">
-        <v>175</v>
+        <v>378</v>
       </c>
       <c r="C257" t="s">
         <v>70</v>
@@ -5597,10 +5649,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B258" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C258" t="s">
         <v>70</v>
@@ -5608,32 +5660,32 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B259" t="s">
-        <v>386</v>
+        <v>175</v>
       </c>
       <c r="C259" t="s">
-        <v>261</v>
+        <v>70</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B260" t="s">
-        <v>399</v>
+        <v>177</v>
       </c>
       <c r="C260" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="B261" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C261" t="s">
         <v>261</v>
@@ -5641,21 +5693,21 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>277</v>
+        <v>400</v>
       </c>
       <c r="B262" t="s">
-        <v>276</v>
+        <v>399</v>
       </c>
       <c r="C262" t="s">
-        <v>261</v>
+        <v>17</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B263" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C263" t="s">
         <v>261</v>
@@ -5663,10 +5715,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>405</v>
+        <v>277</v>
       </c>
       <c r="B264" t="s">
-        <v>406</v>
+        <v>276</v>
       </c>
       <c r="C264" t="s">
         <v>261</v>
@@ -5674,10 +5726,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B265" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C265" t="s">
         <v>261</v>
@@ -5685,10 +5737,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B266" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C266" t="s">
         <v>261</v>
@@ -5696,10 +5748,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B267" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C267" t="s">
         <v>261</v>
@@ -5707,10 +5759,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B268" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C268" t="s">
         <v>261</v>
@@ -5718,10 +5770,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>523</v>
+        <v>412</v>
       </c>
       <c r="B269" t="s">
-        <v>524</v>
+        <v>411</v>
       </c>
       <c r="C269" t="s">
         <v>261</v>
@@ -5729,10 +5781,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B270" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C270" t="s">
         <v>261</v>
@@ -5740,10 +5792,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B271" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C271" t="s">
         <v>261</v>
@@ -5751,32 +5803,32 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="B272" t="s">
-        <v>13</v>
+        <v>416</v>
       </c>
       <c r="C272" t="s">
-        <v>454</v>
+        <v>261</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="B273" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="C273" t="s">
-        <v>454</v>
+        <v>261</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B274" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="C274" t="s">
         <v>454</v>
@@ -5784,10 +5836,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B275" t="s">
-        <v>265</v>
+        <v>453</v>
       </c>
       <c r="C275" t="s">
         <v>454</v>
@@ -5795,10 +5847,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B276" t="s">
-        <v>462</v>
+        <v>112</v>
       </c>
       <c r="C276" t="s">
         <v>454</v>
@@ -5806,10 +5858,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B277" t="s">
-        <v>465</v>
+        <v>265</v>
       </c>
       <c r="C277" t="s">
         <v>454</v>
@@ -5817,10 +5869,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B278" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C278" t="s">
         <v>454</v>
@@ -5828,10 +5880,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B279" t="s">
-        <v>281</v>
+        <v>465</v>
       </c>
       <c r="C279" t="s">
         <v>454</v>
@@ -5839,32 +5891,32 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B280" t="s">
-        <v>13</v>
+        <v>467</v>
       </c>
       <c r="C280" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B281" t="s">
-        <v>458</v>
+        <v>281</v>
       </c>
       <c r="C281" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B282" t="s">
-        <v>520</v>
+        <v>13</v>
       </c>
       <c r="C282" t="s">
         <v>459</v>
@@ -5872,10 +5924,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B283" t="s">
-        <v>265</v>
+        <v>458</v>
       </c>
       <c r="C283" t="s">
         <v>459</v>
@@ -5883,10 +5935,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B284" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="C284" t="s">
         <v>459</v>
@@ -5894,10 +5946,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="B285" t="s">
-        <v>471</v>
+        <v>265</v>
       </c>
       <c r="C285" t="s">
         <v>459</v>
@@ -5905,10 +5957,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B286" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C286" t="s">
         <v>459</v>
@@ -5916,10 +5968,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B287" t="s">
-        <v>281</v>
+        <v>471</v>
       </c>
       <c r="C287" t="s">
         <v>459</v>
@@ -5927,32 +5979,32 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>509</v>
+        <v>472</v>
       </c>
       <c r="B288" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="C288" t="s">
-        <v>10</v>
+        <v>459</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="B289" t="s">
-        <v>510</v>
+        <v>281</v>
       </c>
       <c r="C289" t="s">
-        <v>10</v>
+        <v>459</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B290" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C290" t="s">
         <v>10</v>
@@ -5960,10 +6012,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B291" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C291" t="s">
         <v>10</v>
@@ -5971,10 +6023,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B292" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C292" t="s">
         <v>10</v>
@@ -5982,183 +6034,213 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B293" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C293" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>517</v>
+      </c>
+      <c r="B294" t="s">
+        <v>516</v>
+      </c>
+      <c r="C294" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>522</v>
+      </c>
+      <c r="B295" t="s">
+        <v>521</v>
+      </c>
+      <c r="C295" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A284 A259:A261 A186 A167:A169 A100:A140 A72:A77 A34:A42 A1:A7 A44:A47 A49:A50 A52:A54 A59 A85:A89 A91:A98 A144:A145 A188:A200 A172:A184 A215:A224 A243 A245:A253 A147 A62:A70 A266:A271 A29:A31 A288:A1048576 A79:A83 A206:A213 A255">
+  <conditionalFormatting sqref="A286 A261:A263 A186 A167:A169 A100:A140 A72:A77 A34:A42 A1:A7 A44:A47 A49:A50 A52:A54 A59 A85:A89 A91:A98 A144:A145 A188:A200 A172:A184 A215:A224 A243 A245:A246 A147 A62:A70 A268:A273 A29:A31 A290:A1048576 A79:A83 A206:A213 A257 A248:A250 A252:A255">
+    <cfRule type="duplicateValues" dxfId="87" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="85" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
     <cfRule type="duplicateValues" dxfId="83" priority="87"/>
     <cfRule type="duplicateValues" dxfId="82" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="A43">
     <cfRule type="duplicateValues" dxfId="81" priority="85"/>
     <cfRule type="duplicateValues" dxfId="80" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
+  <conditionalFormatting sqref="A48">
     <cfRule type="duplicateValues" dxfId="79" priority="83"/>
     <cfRule type="duplicateValues" dxfId="78" priority="84"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
+  <conditionalFormatting sqref="A51">
     <cfRule type="duplicateValues" dxfId="77" priority="81"/>
     <cfRule type="duplicateValues" dxfId="76" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+  <conditionalFormatting sqref="A55:A58">
     <cfRule type="duplicateValues" dxfId="75" priority="79"/>
     <cfRule type="duplicateValues" dxfId="74" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
+  <conditionalFormatting sqref="A71">
     <cfRule type="duplicateValues" dxfId="73" priority="77"/>
     <cfRule type="duplicateValues" dxfId="72" priority="78"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:A58">
+  <conditionalFormatting sqref="A84">
     <cfRule type="duplicateValues" dxfId="71" priority="75"/>
     <cfRule type="duplicateValues" dxfId="70" priority="76"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+  <conditionalFormatting sqref="A99">
     <cfRule type="duplicateValues" dxfId="69" priority="73"/>
     <cfRule type="duplicateValues" dxfId="68" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
+  <conditionalFormatting sqref="A90">
     <cfRule type="duplicateValues" dxfId="67" priority="71"/>
     <cfRule type="duplicateValues" dxfId="66" priority="72"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
+  <conditionalFormatting sqref="A141:A143">
     <cfRule type="duplicateValues" dxfId="65" priority="69"/>
     <cfRule type="duplicateValues" dxfId="64" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
+  <conditionalFormatting sqref="A185">
     <cfRule type="duplicateValues" dxfId="63" priority="67"/>
     <cfRule type="duplicateValues" dxfId="62" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A141:A143">
+  <conditionalFormatting sqref="A187">
     <cfRule type="duplicateValues" dxfId="61" priority="65"/>
     <cfRule type="duplicateValues" dxfId="60" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A185">
+  <conditionalFormatting sqref="A170:A171">
     <cfRule type="duplicateValues" dxfId="59" priority="63"/>
     <cfRule type="duplicateValues" dxfId="58" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A187">
+  <conditionalFormatting sqref="A214">
     <cfRule type="duplicateValues" dxfId="57" priority="61"/>
     <cfRule type="duplicateValues" dxfId="56" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A170:A171">
+  <conditionalFormatting sqref="A244">
     <cfRule type="duplicateValues" dxfId="55" priority="59"/>
     <cfRule type="duplicateValues" dxfId="54" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A214">
+  <conditionalFormatting sqref="A258:A260">
     <cfRule type="duplicateValues" dxfId="53" priority="57"/>
     <cfRule type="duplicateValues" dxfId="52" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A244">
+  <conditionalFormatting sqref="A146">
     <cfRule type="duplicateValues" dxfId="51" priority="55"/>
     <cfRule type="duplicateValues" dxfId="50" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A256:A258">
+  <conditionalFormatting sqref="A60">
     <cfRule type="duplicateValues" dxfId="49" priority="53"/>
     <cfRule type="duplicateValues" dxfId="48" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A146">
+  <conditionalFormatting sqref="A61">
     <cfRule type="duplicateValues" dxfId="47" priority="51"/>
     <cfRule type="duplicateValues" dxfId="46" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
+  <conditionalFormatting sqref="A264">
     <cfRule type="duplicateValues" dxfId="45" priority="49"/>
     <cfRule type="duplicateValues" dxfId="44" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
+  <conditionalFormatting sqref="A265">
     <cfRule type="duplicateValues" dxfId="43" priority="47"/>
     <cfRule type="duplicateValues" dxfId="42" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A262">
+  <conditionalFormatting sqref="A266">
     <cfRule type="duplicateValues" dxfId="41" priority="45"/>
     <cfRule type="duplicateValues" dxfId="40" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A263">
+  <conditionalFormatting sqref="A267">
     <cfRule type="duplicateValues" dxfId="39" priority="43"/>
     <cfRule type="duplicateValues" dxfId="38" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A264">
+  <conditionalFormatting sqref="A8:A9">
     <cfRule type="duplicateValues" dxfId="37" priority="41"/>
     <cfRule type="duplicateValues" dxfId="36" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A265">
+  <conditionalFormatting sqref="A10">
     <cfRule type="duplicateValues" dxfId="35" priority="39"/>
     <cfRule type="duplicateValues" dxfId="34" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A9">
+  <conditionalFormatting sqref="A11:A23">
     <cfRule type="duplicateValues" dxfId="33" priority="37"/>
     <cfRule type="duplicateValues" dxfId="32" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
+  <conditionalFormatting sqref="A24">
     <cfRule type="duplicateValues" dxfId="31" priority="35"/>
     <cfRule type="duplicateValues" dxfId="30" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A23">
+  <conditionalFormatting sqref="A25:A28">
     <cfRule type="duplicateValues" dxfId="29" priority="33"/>
     <cfRule type="duplicateValues" dxfId="28" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
+  <conditionalFormatting sqref="A275:A279">
     <cfRule type="duplicateValues" dxfId="27" priority="31"/>
     <cfRule type="duplicateValues" dxfId="26" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A28">
+  <conditionalFormatting sqref="A283:A285">
     <cfRule type="duplicateValues" dxfId="25" priority="29"/>
     <cfRule type="duplicateValues" dxfId="24" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A273:A277">
+  <conditionalFormatting sqref="A274">
     <cfRule type="duplicateValues" dxfId="23" priority="27"/>
     <cfRule type="duplicateValues" dxfId="22" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A281:A283">
+  <conditionalFormatting sqref="A282">
     <cfRule type="duplicateValues" dxfId="21" priority="25"/>
     <cfRule type="duplicateValues" dxfId="20" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A272">
+  <conditionalFormatting sqref="A280">
     <cfRule type="duplicateValues" dxfId="19" priority="23"/>
     <cfRule type="duplicateValues" dxfId="18" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A280">
+  <conditionalFormatting sqref="A287">
     <cfRule type="duplicateValues" dxfId="17" priority="21"/>
     <cfRule type="duplicateValues" dxfId="16" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A278">
+  <conditionalFormatting sqref="A288">
     <cfRule type="duplicateValues" dxfId="15" priority="19"/>
     <cfRule type="duplicateValues" dxfId="14" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A285">
+  <conditionalFormatting sqref="A281">
     <cfRule type="duplicateValues" dxfId="13" priority="17"/>
     <cfRule type="duplicateValues" dxfId="12" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A286">
+  <conditionalFormatting sqref="A289">
     <cfRule type="duplicateValues" dxfId="11" priority="15"/>
     <cfRule type="duplicateValues" dxfId="10" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A279">
+  <conditionalFormatting sqref="A78">
     <cfRule type="duplicateValues" dxfId="9" priority="13"/>
     <cfRule type="duplicateValues" dxfId="8" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A287">
+  <conditionalFormatting sqref="A201:A205">
     <cfRule type="duplicateValues" dxfId="7" priority="11"/>
     <cfRule type="duplicateValues" dxfId="6" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
+  <conditionalFormatting sqref="A256">
     <cfRule type="duplicateValues" dxfId="5" priority="9"/>
     <cfRule type="duplicateValues" dxfId="4" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A201:A205">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
+  <conditionalFormatting sqref="A247">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A254">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  <conditionalFormatting sqref="A251">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
